--- a/data/exampleStochastic/Power_Storage.xlsx
+++ b/data/exampleStochastic/Power_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957658C8-FCFE-422F-A614-16880D7F4965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB980C0-8826-4178-B067-52CA82E07505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" tabRatio="543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="106" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
             <v>[0-1]</v>
           </cell>
           <cell r="Q6" t="str">
-            <v>[$/MWh]</v>
+            <v>[€/MWh]</v>
           </cell>
           <cell r="R6" t="str">
             <v>[0,1]</v>
@@ -1562,7 +1562,7 @@
             <v>Node_1</v>
           </cell>
           <cell r="E7">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="F7">
             <v>25.4</v>
@@ -2868,7 +2868,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="29">
         <v>50</v>
@@ -2890,7 +2890,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="28">
-        <v>4.04</v>
+        <v>5</v>
       </c>
       <c r="R15" s="22">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29">
@@ -3034,7 +3034,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="29">
         <v>50</v>
@@ -3056,7 +3056,7 @@
       <c r="O17" s="29"/>
       <c r="P17" s="25"/>
       <c r="Q17" s="28">
-        <v>4.12</v>
+        <v>5</v>
       </c>
       <c r="R17" s="22">
         <v>0</v>
@@ -3346,18 +3346,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3379,6 +3379,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0155F7A0-74CD-4575-8C0B-A34C113F80FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3392,12 +3400,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13778B2C-CE05-4B32-8196-2F381FEAC95A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/exampleStochastic/Power_Storage.xlsx
+++ b/data/exampleStochastic/Power_Storage.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ScenarioB" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -234,6 +235,46 @@
 </file>
 
 <file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>If a line has a value in this column, it is not read in (i.e., does not exist).</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Readable name</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Value specifier in database</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Description</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>Details on database behavior</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <t>Unit or valid values</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -557,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2004,6 +2045,1458 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="00008080"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="19.7109375" customWidth="1" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" min="3" max="3"/>
+    <col width="15.7109375" customWidth="1" min="4" max="4"/>
+    <col width="15.7109375" customWidth="1" min="5" max="5"/>
+    <col width="15.7109375" customWidth="1" min="6" max="6"/>
+    <col width="15.7109375" customWidth="1" min="7" max="7"/>
+    <col width="15.7109375" customWidth="1" min="8" max="8"/>
+    <col width="15.7109375" customWidth="1" min="9" max="9"/>
+    <col width="21.7109375" customWidth="1" min="10" max="10"/>
+    <col width="21.7109375" customWidth="1" min="11" max="11"/>
+    <col width="20.7109375" customWidth="1" min="12" max="12"/>
+    <col width="15.7109375" customWidth="1" min="13" max="13"/>
+    <col width="15.7109375" customWidth="1" min="14" max="14"/>
+    <col width="15.7109375" customWidth="1" min="15" max="15"/>
+    <col width="15.7109375" customWidth="1" min="16" max="16"/>
+    <col width="20.7109375" customWidth="1" min="17" max="17"/>
+    <col width="15.7109375" customWidth="1" min="18" max="18"/>
+    <col width="15.7109375" customWidth="1" min="19" max="19"/>
+    <col width="15.7109375" customWidth="1" min="20" max="20"/>
+    <col width="20.7109375" customWidth="1" min="21" max="21"/>
+    <col width="20.7109375" customWidth="1" min="22" max="22"/>
+    <col width="22.7109375" customWidth="1" min="23" max="23"/>
+    <col width="15.7109375" customWidth="1" min="24" max="24"/>
+    <col width="20.2109375" customWidth="1" min="25" max="25"/>
+    <col width="20.2109375" customWidth="1" min="26" max="26"/>
+    <col width="15.7109375" customWidth="1" min="27" max="27"/>
+    <col width="15.7109375" customWidth="1" min="28" max="28"/>
+    <col width="24.5709375" customWidth="1" min="29" max="29"/>
+    <col width="24.5709375" customWidth="1" min="30" max="30"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Power - Storage</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Format:</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>v0.0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Excl.</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Database ID</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Generator</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Node</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ExisUnits</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>MaxProd</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>MinProd</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>MaxCons</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>Discharge Efficiency</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>Charge Efficiency</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>Self Discharge</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>Qmax</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>Qmin</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>MinReserve</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>Initial Reserve</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>IsLDES</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>OMVarCost</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>EnableInvest</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>MaxInvest</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>InvestCostPerMW</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>InvestCostPerMWh</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>Energy to Power Ratio</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>FirmCapCoef</t>
+        </is>
+      </c>
+      <c r="Y3" s="5" t="inlineStr">
+        <is>
+          <t>Commission Year</t>
+        </is>
+      </c>
+      <c r="Z3" s="5" t="inlineStr">
+        <is>
+          <t>Decommission Year</t>
+        </is>
+      </c>
+      <c r="AA3" s="5" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="AB3" s="5" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="AC3" s="5" t="inlineStr">
+        <is>
+          <t>Data Package</t>
+        </is>
+      </c>
+      <c r="AD3" s="5" t="inlineStr">
+        <is>
+          <t>Data Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>excl</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>tec</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>ExisUnits</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>MaxProd</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>MinProd</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>MaxCons</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>DisEffic</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>ChEffic</t>
+        </is>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>SelfDischarge</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>Qmax</t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="inlineStr">
+        <is>
+          <t>Qmin</t>
+        </is>
+      </c>
+      <c r="O4" s="6" t="inlineStr">
+        <is>
+          <t>MinReserve</t>
+        </is>
+      </c>
+      <c r="P4" s="6" t="inlineStr">
+        <is>
+          <t>IniReserve</t>
+        </is>
+      </c>
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>IsLDES</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="inlineStr">
+        <is>
+          <t>OMVarCost</t>
+        </is>
+      </c>
+      <c r="S4" s="6" t="inlineStr">
+        <is>
+          <t>EnableInvest</t>
+        </is>
+      </c>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t>MaxInvest</t>
+        </is>
+      </c>
+      <c r="U4" s="6" t="inlineStr">
+        <is>
+          <t>InvestCostPerMW</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="inlineStr">
+        <is>
+          <t>InvestCostPerMWh</t>
+        </is>
+      </c>
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>Ene2PowRatio</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
+        <is>
+          <t>FirmCapCoef</t>
+        </is>
+      </c>
+      <c r="Y4" s="6" t="inlineStr">
+        <is>
+          <t>YearCom</t>
+        </is>
+      </c>
+      <c r="Z4" s="6" t="inlineStr">
+        <is>
+          <t>YearDecom</t>
+        </is>
+      </c>
+      <c r="AA4" s="6" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="AB4" s="6" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="AC4" s="6" t="inlineStr">
+        <is>
+          <t>dataPackage</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="inlineStr">
+        <is>
+          <t>dataSource</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>ID within database</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Generator/Unit name</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Corresponding technology</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>Name of node</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>Number of existing units</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Maximum active power output of the unit</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Minimum active power output of the unit</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>Maximum consumption of the unit</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
+          <t>Efficiency of discharging the storage unit</t>
+        </is>
+      </c>
+      <c r="K5" s="7" t="inlineStr">
+        <is>
+          <t>Efficiency of charging the storage unit</t>
+        </is>
+      </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>Self discharge of the storage unit</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr">
+        <is>
+          <t>Maximum reactive power output of the unit</t>
+        </is>
+      </c>
+      <c r="N5" s="7" t="inlineStr">
+        <is>
+          <t>Minimum reactive power output of the unit</t>
+        </is>
+      </c>
+      <c r="O5" s="7" t="inlineStr">
+        <is>
+          <t>Minimum reserve of the storage unit</t>
+        </is>
+      </c>
+      <c r="P5" s="7" t="inlineStr">
+        <is>
+          <t>Initial reserve of the storage unit</t>
+        </is>
+      </c>
+      <c r="Q5" s="7" t="inlineStr">
+        <is>
+          <t>Whether the storage unit is a long-duration energy storage (1) or not (0)</t>
+        </is>
+      </c>
+      <c r="R5" s="7" t="inlineStr">
+        <is>
+          <t>Operation and maintenance cost of the unit</t>
+        </is>
+      </c>
+      <c r="S5" s="7" t="inlineStr">
+        <is>
+          <t>Whether the model can invest in the unit (1) or not (0)</t>
+        </is>
+      </c>
+      <c r="T5" s="7" t="inlineStr">
+        <is>
+          <t>Maximum number of units that can be invested in</t>
+        </is>
+      </c>
+      <c r="U5" s="7" t="inlineStr">
+        <is>
+          <t>Annualized investment cost per MW of MaxProd</t>
+        </is>
+      </c>
+      <c r="V5" s="7" t="inlineStr">
+        <is>
+          <t>Annualized investment cost per MWh of storage capacity</t>
+        </is>
+      </c>
+      <c r="W5" s="7" t="inlineStr">
+        <is>
+          <t>Energy to power ratio of the storage unit</t>
+        </is>
+      </c>
+      <c r="X5" s="7" t="inlineStr">
+        <is>
+          <t>Firm capacity coefficient of the unit</t>
+        </is>
+      </c>
+      <c r="Y5" s="7" t="inlineStr">
+        <is>
+          <t>Year where it is commissioned (1.1.xxxx)</t>
+        </is>
+      </c>
+      <c r="Z5" s="7" t="inlineStr">
+        <is>
+          <t>Year where it is decommissioned (31.12.xxxx)</t>
+        </is>
+      </c>
+      <c r="AA5" s="7" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="AB5" s="7" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="AC5" s="7" t="inlineStr">
+        <is>
+          <t>Which package this belongs to</t>
+        </is>
+      </c>
+      <c r="AD5" s="7" t="inlineStr">
+        <is>
+          <t>Where the data for the entry comes from</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Filled automatically by database</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="L6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="M6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="N6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="O6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="P6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="Q6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="R6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="S6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="T6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="U6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="V6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="W6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="X6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="Y6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="Z6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="AA6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB6" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+      <c r="AD6" s="8" t="inlineStr">
+        <is>
+          <t>Scenario-dependent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>[db-key]</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>[g]</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>[tec]</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>[i]</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>[0-N]</t>
+        </is>
+      </c>
+      <c r="G7" s="9" t="inlineStr">
+        <is>
+          <t>[MW]</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>[MW]</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>[MW]</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="K7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="L7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="M7" s="9" t="inlineStr">
+        <is>
+          <t>[MVAr]</t>
+        </is>
+      </c>
+      <c r="N7" s="9" t="inlineStr">
+        <is>
+          <t>[MVAr]</t>
+        </is>
+      </c>
+      <c r="O7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="P7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="Q7" s="9" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="R7" s="9" t="inlineStr">
+        <is>
+          <t>[€/MWh]</t>
+        </is>
+      </c>
+      <c r="S7" s="9" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="T7" s="9" t="inlineStr">
+        <is>
+          <t>[0-N]</t>
+        </is>
+      </c>
+      <c r="U7" s="9" t="inlineStr">
+        <is>
+          <t>[€/MW]</t>
+        </is>
+      </c>
+      <c r="V7" s="9" t="inlineStr">
+        <is>
+          <t>[€/MWh]</t>
+        </is>
+      </c>
+      <c r="W7" s="9" t="inlineStr">
+        <is>
+          <t>[h]</t>
+        </is>
+      </c>
+      <c r="X7" s="9" t="inlineStr">
+        <is>
+          <t>[%, 0-1]</t>
+        </is>
+      </c>
+      <c r="Y7" s="9" t="inlineStr">
+        <is>
+          <t>[Year]</t>
+        </is>
+      </c>
+      <c r="Z7" s="9" t="inlineStr">
+        <is>
+          <t>[Year]</t>
+        </is>
+      </c>
+      <c r="AA7" s="9" t="inlineStr">
+        <is>
+          <t>[°]</t>
+        </is>
+      </c>
+      <c r="AB7" s="9" t="inlineStr">
+        <is>
+          <t>[°]</t>
+        </is>
+      </c>
+      <c r="AC7" s="9" t="inlineStr">
+        <is>
+          <t>[dataPackage]</t>
+        </is>
+      </c>
+      <c r="AD7" s="9" t="inlineStr">
+        <is>
+          <t>[dataSource]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>StorageHydro</t>
+        </is>
+      </c>
+      <c r="D8" s="12" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>Node_3</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>600</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>300</v>
+      </c>
+      <c r="N8" s="14" t="n">
+        <v>-300</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>0.7813</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="V8" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="W8" s="14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="X8" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y8" s="13" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA8" s="17" t="n">
+        <v>47.4913</v>
+      </c>
+      <c r="AB8" s="17" t="n">
+        <v>12.8182</v>
+      </c>
+      <c r="AC8" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD8" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="D9" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>Node_1</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P9" s="15" t="n">
+        <v/>
+      </c>
+      <c r="Q9" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R9" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="U9" s="15" t="n">
+        <v>3821.0756</v>
+      </c>
+      <c r="V9" s="15" t="n">
+        <v>15584.3023</v>
+      </c>
+      <c r="W9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" s="16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y9" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA9" s="17" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AB9" s="17" t="n">
+        <v>13.7467</v>
+      </c>
+      <c r="AC9" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD9" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>BESS3</t>
+        </is>
+      </c>
+      <c r="D10" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>Node_5</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P10" s="15" t="n">
+        <v/>
+      </c>
+      <c r="Q10" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R10" s="15" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="U10" s="15" t="n">
+        <v>3871.0756</v>
+      </c>
+      <c r="V10" s="15" t="n">
+        <v>15484.3023</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X10" s="16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y10" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Z10" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA10" s="17" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="AB10" s="17" t="n">
+        <v>13.7467</v>
+      </c>
+      <c r="AC10" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD10" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>BESS5</t>
+        </is>
+      </c>
+      <c r="D11" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>Node_4</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I11" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v/>
+      </c>
+      <c r="Q11" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R11" s="15" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="S11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <v>3921.0756</v>
+      </c>
+      <c r="V11" s="15" t="n">
+        <v>15384.3023</v>
+      </c>
+      <c r="W11" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X11" s="16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA11" s="17" t="n">
+        <v>46.561055</v>
+      </c>
+      <c r="AB11" s="17" t="n">
+        <v>14.47957</v>
+      </c>
+      <c r="AC11" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD11" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>BESS7</t>
+        </is>
+      </c>
+      <c r="D12" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>Node_6</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I12" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v/>
+      </c>
+      <c r="Q12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>3971.0756</v>
+      </c>
+      <c r="V12" s="15" t="n">
+        <v>15284.3023</v>
+      </c>
+      <c r="W12" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X12" s="16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Z12" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA12" s="17" t="n">
+        <v>47.0552</v>
+      </c>
+      <c r="AB12" s="17" t="n">
+        <v>9.90002</v>
+      </c>
+      <c r="AC12" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD12" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>BESS8</t>
+        </is>
+      </c>
+      <c r="D13" s="12" t="inlineStr">
+        <is>
+          <t>BESS</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>Node_6</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="K13" s="15" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="15" t="n">
+        <v/>
+      </c>
+      <c r="P13" s="15" t="n">
+        <v/>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v/>
+      </c>
+      <c r="R13" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>150</v>
+      </c>
+      <c r="U13" s="15" t="n">
+        <v>4000</v>
+      </c>
+      <c r="V13" s="15" t="n">
+        <v>16000</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v/>
+      </c>
+      <c r="AA13" s="17" t="n">
+        <v>47.066462</v>
+      </c>
+      <c r="AB13" s="17" t="n">
+        <v>9.915794999999999</v>
+      </c>
+      <c r="AC13" s="18" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="AD13" s="18" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_Storage.xlsx
+++ b/data/exampleStochastic/Power_Storage.xlsx
@@ -1544,7 +1544,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="n"/>
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B9" s="11" t="n">
         <v/>
       </c>
@@ -1944,7 +1948,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="n"/>
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B13" s="11" t="n">
         <v/>
       </c>
@@ -2996,7 +3004,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="n"/>
+      <c r="A9" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B9" s="11" t="n">
         <v/>
       </c>
@@ -3396,7 +3408,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="n"/>
+      <c r="A13" s="10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B13" s="11" t="n">
         <v/>
       </c>

--- a/data/exampleStochastic/Power_Storage.xlsx
+++ b/data/exampleStochastic/Power_Storage.xlsx
@@ -647,7 +647,7 @@
     <col width="24.5709375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     <col width="24.5709375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_Storage.xlsx
+++ b/data/exampleStochastic/Power_Storage.xlsx
@@ -42,13 +42,13 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -65,38 +65,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -615,7 +615,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -639,12 +639,12 @@
     <col width="20.7109375" customWidth="1" min="22" max="22"/>
     <col width="22.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
-    <col width="20.2109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="25" max="25"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
     <col width="15.7109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
-    <col width="24.5709375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="29" max="29"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2053,12 +2053,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2075,7 +2075,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
@@ -2099,12 +2099,12 @@
     <col width="20.7109375" customWidth="1" min="22" max="22"/>
     <col width="22.7109375" customWidth="1" min="23" max="23"/>
     <col width="15.7109375" customWidth="1" min="24" max="24"/>
-    <col width="20.2109375" customWidth="1" min="25" max="25"/>
-    <col width="20.2109375" customWidth="1" min="26" max="26"/>
+    <col width="20.140625" customWidth="1" min="25" max="25"/>
+    <col width="20.140625" customWidth="1" min="26" max="26"/>
     <col width="15.7109375" customWidth="1" min="27" max="27"/>
     <col width="15.7109375" customWidth="1" min="28" max="28"/>
-    <col width="24.5709375" customWidth="1" min="29" max="29"/>
-    <col width="24.5709375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="29" max="29"/>
+    <col width="24.5703125" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -3513,6 +3513,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>